--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_20.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_20.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4373.133333333333</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>4768</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4002</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.09309951464335124</v>
+        <v>3875</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10, 27, 1, 12, 2, 7, 30, 13, 25, 18, 17, 26, 20, 4, 6, 9, 19, 3, 31, 23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 12 -&gt; 17 -&gt; 13 -&gt; 9 -&gt; 26 -&gt; 25 -&gt; 27 -&gt; 30 -&gt; 31 -&gt; 19 -&gt; 20 -&gt; 6 -&gt; 3 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 18 -&gt; 23 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 16 -&gt; 17 -&gt; 13 -&gt; 9 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 20 -&gt; 19 -&gt; 20 -&gt; 17 -&gt; 13 -&gt; 9 -&gt; 6 -&gt; 3 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1097970008850098</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3858.866666666667</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>4304</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3316</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1154022693634033</v>
+        <v>3228</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8, 27, 30, 26, 1, 25, 23, 24, 11, 14, 20, 22, 6, 10, 16, 29, 21, 4, 9, 12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 24 -&gt; 20 -&gt; 16 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 29 -&gt; 30 -&gt; 9 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 4 -&gt; 1 -&gt; 8 -&gt; 14 -&gt; 21 -&gt; 22 -&gt; 23 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 15 -&gt; 14 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 13 -&gt; 29 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 9 -&gt; 6 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 23 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1099905967712402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4733.733333333334</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5033</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4355</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1224016427993774</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4428.366666666667</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4878</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3984</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1163718859354655</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4246.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4683</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3931</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1104916016260783</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4285.433333333333</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4625</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3921</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.09375186761220296</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4753.666666666667</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5068</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4021</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.09359845320383707</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3952</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4263</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3627</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.08818786144256592</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4784.633333333333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5098</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4361</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1049101750055949</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4226.033333333334</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4520</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3673</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1119207859039307</v>
+        <v>3808</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32, 16, 10, 9, 27, 24, 8, 1, 26, 6, 25, 21, 5, 12, 20, 3, 2, 29, 31, 19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 6 -&gt; 5 -&gt; 8 -&gt; 9 -&gt; 25 -&gt; 26 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 20 -&gt; 31 -&gt; 32 -&gt; 24 -&gt; 19 -&gt; 10 -&gt; 21 -&gt; 12 -&gt; 16 -&gt; 29 -&gt; 27 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 5 -&gt; 8 -&gt; 9 -&gt; 6 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 31 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 15 -&gt; 14 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1084606647491455</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_20.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_20.xlsx
@@ -454,7 +454,7 @@
         <v>3875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08315253257751465</v>
+        <v>0.08043646812438965</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_20.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_20.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Qtd_Nós</t>
+          <t>Índice</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -445,16 +450,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>3850.2</v>
       </c>
       <c r="C2" t="n">
-        <v>3875</v>
+        <v>4202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08043646812438965</v>
+        <v>3414</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.08177816073099772</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3459.533333333333</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3786</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2983</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.08239096800486247</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3923.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4223</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3592</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.08564380804697673</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3642.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3939</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3327</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08257897694905598</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3577.066666666667</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3903</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3147</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08231860001881917</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3757.633333333333</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4088</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3293</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.08660952250162761</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4125.133333333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4397</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3694</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.08564602533976237</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3563</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3869</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3356</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0827089786529541</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3881.866666666667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4150</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3362</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.08305748303731282</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3789.766666666667</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4217</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3319</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.08236207167307535</v>
       </c>
     </row>
   </sheetData>
